--- a/Stock_Historico.xlsx
+++ b/Stock_Historico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71293763l\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E91185-ED30-7F42-8DE2-12F395D247C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17980"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -264,9 +265,6 @@
   </si>
   <si>
     <t>Chip secuenciación Ion 550 TM Chip Kit</t>
-  </si>
-  <si>
-    <t>1 de 4</t>
   </si>
   <si>
     <t>Q32853</t>
@@ -293,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +382,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -516,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,26 +723,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -748,18 +780,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64887</v>
       </c>
@@ -776,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>64887</v>
       </c>
@@ -793,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64887</v>
       </c>
@@ -810,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>64887</v>
       </c>
@@ -827,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64887</v>
       </c>
@@ -844,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64887</v>
       </c>
@@ -861,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>64936</v>
       </c>
@@ -872,7 +904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64936</v>
       </c>
@@ -889,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>64936</v>
       </c>
@@ -906,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64936</v>
       </c>
@@ -924,7 +956,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>64936</v>
       </c>
@@ -941,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>64936</v>
       </c>
@@ -958,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>64933</v>
       </c>
@@ -969,12 +1001,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>64933</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -986,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>64966</v>
       </c>
@@ -997,7 +1029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -1014,12 +1046,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1031,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -1048,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64966</v>
       </c>
@@ -1065,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>64939</v>
       </c>
@@ -1082,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>64895</v>
       </c>
@@ -1099,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>34896</v>
       </c>
@@ -1116,12 +1148,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1133,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64897</v>
       </c>
@@ -1150,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>65366</v>
       </c>
@@ -1167,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>64921</v>
       </c>
@@ -1184,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>65377</v>
       </c>
@@ -1209,21 +1241,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1261,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>64889</v>
       </c>
@@ -1272,7 +1304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64889</v>
       </c>
@@ -1289,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>64889</v>
       </c>
@@ -1306,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64889</v>
       </c>
@@ -1323,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>64889</v>
       </c>
@@ -1340,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64889</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64889</v>
       </c>
@@ -1374,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>64934</v>
       </c>
@@ -1385,7 +1417,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64934</v>
       </c>
@@ -1402,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>64934</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64934</v>
       </c>
@@ -1436,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>64934</v>
       </c>
@@ -1453,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>64934</v>
       </c>
@@ -1470,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>64910</v>
       </c>
@@ -1481,12 +1513,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>64910</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1498,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>64966</v>
       </c>
@@ -1509,7 +1541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -1526,12 +1558,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1543,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -1560,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64966</v>
       </c>
@@ -1577,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>67460</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>64895</v>
       </c>
@@ -1611,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>34896</v>
       </c>
@@ -1628,12 +1660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1645,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64897</v>
       </c>
@@ -1662,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>65366</v>
       </c>
@@ -1679,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>64921</v>
       </c>
@@ -1696,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>65377</v>
       </c>
@@ -1720,25 +1752,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1776,7 +1808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>49669</v>
       </c>
@@ -1787,7 +1819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>49669</v>
       </c>
@@ -1804,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>49669</v>
       </c>
@@ -1818,7 +1850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>49669</v>
       </c>
@@ -1835,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>49669</v>
       </c>
@@ -1852,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>49669</v>
       </c>
@@ -1869,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>49669</v>
       </c>
@@ -1886,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>34545</v>
       </c>
@@ -1897,7 +1929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34545</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>34545</v>
       </c>
@@ -1931,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34545</v>
       </c>
@@ -1948,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>34545</v>
       </c>
@@ -1965,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>34545</v>
       </c>
@@ -1982,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>34538</v>
       </c>
@@ -1995,11 +2027,11 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>64966</v>
       </c>
@@ -2010,7 +2042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>64966</v>
       </c>
@@ -2027,12 +2059,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64966</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2044,7 +2076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -2061,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -2078,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64895</v>
       </c>
@@ -2095,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>34896</v>
       </c>
@@ -2112,12 +2144,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>34896</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -2129,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>64897</v>
       </c>
@@ -2146,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>65366</v>
       </c>
@@ -2163,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64921</v>
       </c>
@@ -2180,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>65377</v>
       </c>

--- a/Stock_Historico.xlsx
+++ b/Stock_Historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E91185-ED30-7F42-8DE2-12F395D247C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D3E784-3D6F-4E4D-BFCD-32D715925E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -265,15 +265,6 @@
   </si>
   <si>
     <t>Chip secuenciación Ion 550 TM Chip Kit</t>
-  </si>
-  <si>
-    <t>Q32853</t>
-  </si>
-  <si>
-    <t>A27763</t>
-  </si>
-  <si>
-    <t>AM1976</t>
   </si>
   <si>
     <t>A42008</t>
@@ -726,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -785,10 +776,10 @@
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1006,7 +997,7 @@
         <v>64933</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1051,7 +1042,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1153,7 +1144,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1245,7 +1236,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1518,7 +1509,7 @@
         <v>64910</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1563,7 +1554,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1665,7 +1656,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1755,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2064,7 +2055,7 @@
         <v>64966</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2149,7 +2140,7 @@
         <v>34896</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>

--- a/Stock_Historico.xlsx
+++ b/Stock_Historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D3E784-3D6F-4E4D-BFCD-32D715925E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B6F123-F687-6F4E-9CDB-934D25A5009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="84">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Panel Oncomine Focus Library Assay Chef Ready</t>
-  </si>
-  <si>
-    <t>A27766</t>
   </si>
   <si>
     <t>Stock</t>
@@ -717,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -750,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1235,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1509,7 +1506,7 @@
         <v>64910</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1778,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>

--- a/Stock_Historico.xlsx
+++ b/Stock_Historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B6F123-F687-6F4E-9CDB-934D25A5009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D3FD0F-06A1-AC48-AC16-1703D8674A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -267,10 +267,22 @@
     <t>Chip secuenciación Ion 550 TM Chip Kit</t>
   </si>
   <si>
+    <t>Q32853</t>
+  </si>
+  <si>
+    <t>A27763</t>
+  </si>
+  <si>
+    <t>AM1976</t>
+  </si>
+  <si>
     <t>A42008</t>
   </si>
   <si>
     <t>Panel Oncomine Focus Library Assay Chef Ready</t>
+  </si>
+  <si>
+    <t>A27766</t>
   </si>
   <si>
     <t>Stock</t>
@@ -715,7 +727,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -773,10 +785,10 @@
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -994,7 +1006,7 @@
         <v>64933</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1039,7 +1051,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1141,7 +1153,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1232,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1260,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1506,7 +1518,7 @@
         <v>64910</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1551,7 +1563,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1653,7 +1665,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1743,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1837,6 +1849,9 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2016,7 +2031,7 @@
         <v>60</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2052,7 +2067,7 @@
         <v>64966</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2137,7 +2152,7 @@
         <v>34896</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>

--- a/Stock_Historico.xlsx
+++ b/Stock_Historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D3FD0F-06A1-AC48-AC16-1703D8674A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592602F7-B17F-E140-B7C2-6379D0922792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>A49669</t>
+  </si>
+  <si>
+    <t>A34541</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1762,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,20 +1815,15 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>49669</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>49669</v>
-      </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -1837,11 +1838,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>49669</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
+      <c r="B4">
+        <v>78310</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1854,9 +1852,6 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>49669</v>
-      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1871,9 +1866,6 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>49669</v>
-      </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1888,9 +1880,6 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>49669</v>
-      </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1905,9 +1894,6 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>49669</v>
-      </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1922,20 +1908,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>34545</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>34545</v>
-      </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -1950,9 +1931,6 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>34545</v>
-      </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -1967,9 +1945,6 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>34545</v>
-      </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1984,9 +1959,6 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>34545</v>
-      </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -2001,9 +1973,6 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>34545</v>
-      </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +1988,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>34538</v>
+        <v>64935</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
